--- a/biology/Zoologie/Dipsas_bicolor/Dipsas_bicolor.xlsx
+++ b/biology/Zoologie/Dipsas_bicolor/Dipsas_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas bicolor  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas bicolor  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Nicaragua et au Costa Rica[1].
-Pour Harvey[2], Lehr[3] aurait fait une erreur d'identification en la signalant au Pérou en prenant Dipsas gracilis pour cette espèce.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Nicaragua et au Costa Rica.
+Pour Harvey, Lehr aurait fait une erreur d'identification en la signalant au Pérou en prenant Dipsas gracilis pour cette espèce.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Dipsas bicolor[4] mesure 55 cm dont 20 cm pour la queue. Son dos est noir profond et présente des anneaux de couleur blanche, le premier situé au niveau de la nuque, puis 14 sur le corps et 12 sur la queue. La largeur de ces anneaux blancs est environ moitié moins grande que la bande noire qui les sépare.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Dipsas bicolor mesure 55 cm dont 20 cm pour la queue. Son dos est noir profond et présente des anneaux de couleur blanche, le premier situé au niveau de la nuque, puis 14 sur le corps et 12 sur la queue. La largeur de ces anneaux blancs est environ moitié moins grande que la bande noire qui les sépare.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin bicolor, « à deux couleurs », lui a été donné en référence à sa livrée.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1895 : Reptilia and Batrachia, Biologia Centrali-Américana, Taylor, &amp; Francis, London, p. 1-326 (texte intégral).</t>
         </is>
